--- a/docs/paper_experiment/preservation/obfu.xlsx
+++ b/docs/paper_experiment/preservation/obfu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/preservation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A0EDD-7846-C047-9B72-AB34AF51B970}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3993FD-6536-0F41-BE53-1984BDA81CBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="15000" activeTab="4" xr2:uid="{D7C60EAE-4D5B-5E4D-A5E7-4DE04EA29B1F}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="15000" activeTab="2" xr2:uid="{D7C60EAE-4D5B-5E4D-A5E7-4DE04EA29B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,15 @@
     <sheet name="MLI" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">MLI!$H$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">MLI!$H$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">MLI!$H$3:$L$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">MLI!$H$4:$L$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">MLI!$G$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">MLI!$G$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">MLI!$G$4</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">MLI!$G$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">MLI!$G$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">MLI!$G$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">MLI!$H$1:$L$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">MLI!$H$2:$L$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">MLI!$H$3:$L$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">MLI!$H$4:$L$4</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">IOP!$G$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">IOP!$G$3</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">IOP!$G$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">IOP!$H$1:$L$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">IOP!$H$2:$L$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">IOP!$H$3:$L$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">IOP!$H$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1282,6 +1275,455 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>IOP!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOP!$H$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2gram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3gram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4gram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5gram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOP!$H$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49019607843137253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46938775510204084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36956521739130432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CAE-D34C-9E8A-FFD91AC16094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IOP!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOP!$H$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2gram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3gram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4gram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5gram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOP!$H$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49019607843137253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46938775510204084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36956521739130432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CAE-D34C-9E8A-FFD91AC16094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IOP!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOP!$H$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2gram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3gram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4gram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5gram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6gram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOP!$H$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49019607843137253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46938775510204084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36956521739130432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CAE-D34C-9E8A-FFD91AC16094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1701398448"/>
+        <c:axId val="1701101152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1701398448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701101152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1701101152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701398448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>IR!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1705,7 +2147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2314,6 +2756,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3824,6 +4306,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4412,6 +5397,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE41176-6F5A-D943-A746-D5ECE926A90C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -4449,7 +5475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5128,27 +6154,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FB75F3-CFFC-F148-B394-123E6DEC489B}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -5168,82 +6194,82 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>0.75</v>
       </c>
       <c r="H2">
         <f>A1/A$4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:L4" si="0">B1/B$4</f>
-        <v>0</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46938775510204084</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36956521739130432</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>0.5</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">A2/A$4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46938775510204084</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36956521739130432</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5267,28 +6293,29 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46938775510204084</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36956521739130432</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5465,7 +6492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CA66F-2937-914C-85CB-85CD7E1115D9}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:L4"/>
     </sheetView>
   </sheetViews>

--- a/docs/paper_experiment/preservation/obfu.xlsx
+++ b/docs/paper_experiment/preservation/obfu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/preservation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/preservation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3993FD-6536-0F41-BE53-1984BDA81CBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18768F1A-B6E8-1548-BEF8-D8BF56A8C491}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="15000" activeTab="2" xr2:uid="{D7C60EAE-4D5B-5E4D-A5E7-4DE04EA29B1F}"/>
+    <workbookView xWindow="-7600" yWindow="-18660" windowWidth="25500" windowHeight="15000" activeTab="9" xr2:uid="{D7C60EAE-4D5B-5E4D-A5E7-4DE04EA29B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,12 @@
     <sheet name="IOP" sheetId="3" r:id="rId3"/>
     <sheet name="IR" sheetId="4" r:id="rId4"/>
     <sheet name="MLI" sheetId="5" r:id="rId5"/>
+    <sheet name="new_DNR" sheetId="6" r:id="rId6"/>
+    <sheet name="new_DR" sheetId="7" r:id="rId7"/>
+    <sheet name="new_IOP" sheetId="8" r:id="rId8"/>
+    <sheet name="new_IR" sheetId="9" r:id="rId9"/>
+    <sheet name="new_MLI" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">IOP!$G$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">IOP!$G$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">IOP!$G$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">IOP!$H$1:$L$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">IOP!$H$2:$L$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">IOP!$H$3:$L$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">IOP!$H$4:$L$4</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
   <si>
     <t>2gram</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +54,19 @@
   <si>
     <t>6gram</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4gram</t>
+  </si>
+  <si>
+    <t>5gram</t>
+  </si>
+  <si>
+    <t>6gram</t>
   </si>
 </sst>
 </file>
@@ -5981,6 +5990,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CE310D-0BF2-034E-AA33-6F065FF7DAD3}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.85</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6A0059-EA4C-684E-9B5F-B01BD19CB951}">
   <dimension ref="A1:L4"/>
@@ -6154,7 +6380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FB75F3-CFFC-F148-B394-123E6DEC489B}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -6655,4 +6881,872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24761C2-A19F-6B4F-AB2B-3A5ADD658B48}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.85</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4647EE-9636-1A49-96CD-50C0AF66E78D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.85</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6973516F-2FE5-D74C-9BAB-3C2470C30A38}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.85</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A06D4-6F3C-C84D-9678-2088C3CDD090}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.95</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.85</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>